--- a/Surveys/2023/SB6/SB Survey #6 Plankton Sheet.xlsx
+++ b/Surveys/2023/SB6/SB Survey #6 Plankton Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\herri\Documents\GitHub\HerringScience.github.io\Surveys\2023\SB6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED93CD8F-FB4E-44AE-8952-D9B692CF90F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D054EB-3667-4117-B982-817A6CF3FBDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tow 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Start</t>
   </si>
@@ -120,6 +120,36 @@
   </si>
   <si>
     <t>SB2023-10</t>
+  </si>
+  <si>
+    <t>Darren &amp; Tracey</t>
+  </si>
+  <si>
+    <t>11km/h NW</t>
+  </si>
+  <si>
+    <t>0m</t>
+  </si>
+  <si>
+    <t>22C</t>
+  </si>
+  <si>
+    <t>4.3kn / 33 deg</t>
+  </si>
+  <si>
+    <t>0.8kn / 213 deg</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>8m</t>
+  </si>
+  <si>
+    <t>7m</t>
   </si>
 </sst>
 </file>
@@ -768,7 +798,7 @@
   <dimension ref="A1:K991"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -843,7 +873,9 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="26"/>
+      <c r="B5" s="26">
+        <v>45137</v>
+      </c>
       <c r="C5" s="25"/>
       <c r="D5" s="25"/>
       <c r="E5" s="24"/>
@@ -858,7 +890,9 @@
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="23"/>
+      <c r="B6" s="23" t="s">
+        <v>28</v>
+      </c>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
       <c r="E6" s="24"/>
@@ -873,7 +907,9 @@
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="20" t="s">
+        <v>29</v>
+      </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
       <c r="E7" s="22"/>
@@ -888,7 +924,9 @@
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="23" t="s">
+        <v>30</v>
+      </c>
       <c r="C8" s="25"/>
       <c r="D8" s="25"/>
       <c r="E8" s="24"/>
@@ -903,7 +941,9 @@
       <c r="A9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="23" t="s">
+        <v>31</v>
+      </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
       <c r="E9" s="24"/>
@@ -918,7 +958,9 @@
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="27">
+        <v>0.1</v>
+      </c>
       <c r="C10" s="25"/>
       <c r="D10" s="25"/>
       <c r="E10" s="24"/>
@@ -933,10 +975,18 @@
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="15"/>
+      <c r="B11" s="14">
+        <v>0.7993055555555556</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.80625000000000002</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.81041666666666667</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.81736111111111109</v>
+      </c>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
@@ -948,33 +998,33 @@
       <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="17" t="e">
+      <c r="B12" s="17">
         <f>(LEFT(F12,2)+((RIGHT(F12,LEN(F12)-2))/60))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" s="17" t="e">
+        <v>45.0505</v>
+      </c>
+      <c r="C12" s="17">
         <f t="shared" ref="C12:E12" si="0">(LEFT(G12,2)+((RIGHT(G12,LEN(G12)-2))/60))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D12" s="17" t="e">
+        <v>45.06066666666667</v>
+      </c>
+      <c r="D12" s="17">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E12" s="17" t="e">
+        <v>45.059333333333335</v>
+      </c>
+      <c r="E12" s="17">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
+        <v>45</v>
       </c>
       <c r="F12" s="13">
-        <v>1</v>
+        <v>4503.03</v>
       </c>
       <c r="G12" s="13">
-        <v>3</v>
+        <v>4503.6400000000003</v>
       </c>
       <c r="H12" s="13">
-        <v>5</v>
+        <v>4503.5600000000004</v>
       </c>
       <c r="I12" s="13">
-        <v>7</v>
+        <v>4500</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
@@ -983,33 +1033,33 @@
       <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="18" t="e">
+      <c r="B13" s="18">
         <f>-(LEFT(F13,2)+((RIGHT(F13,LEN(F13)-2))/60))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" s="18" t="e">
+        <v>-65.230166666666662</v>
+      </c>
+      <c r="C13" s="18">
         <f t="shared" ref="C13:E13" si="1">-(LEFT(G13,2)+((RIGHT(G13,LEN(G13)-2))/60))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" s="18" t="e">
+        <v>-65.219666666666669</v>
+      </c>
+      <c r="D13" s="18">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E13" s="18" t="e">
+        <v>-65.209500000000006</v>
+      </c>
+      <c r="E13" s="18">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
+        <v>-65</v>
       </c>
       <c r="F13" s="13">
-        <v>2</v>
+        <v>6513.81</v>
       </c>
       <c r="G13" s="13">
-        <v>4</v>
+        <v>6513.18</v>
       </c>
       <c r="H13" s="13">
-        <v>6</v>
+        <v>6512.57</v>
       </c>
       <c r="I13" s="13">
-        <v>8</v>
+        <v>6500</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
@@ -1018,9 +1068,13 @@
       <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="28"/>
+      <c r="B14" s="28" t="s">
+        <v>32</v>
+      </c>
       <c r="C14" s="29"/>
-      <c r="D14" s="28"/>
+      <c r="D14" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="E14" s="29"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
@@ -1033,9 +1087,13 @@
       <c r="A15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="28"/>
+      <c r="B15" s="28" t="s">
+        <v>34</v>
+      </c>
       <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="D15" s="28" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" s="28"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -1044,14 +1102,22 @@
       <c r="J15" s="13"/>
       <c r="K15" s="13"/>
     </row>
-    <row r="16" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="10"/>
+      <c r="B16" s="19">
+        <v>483783</v>
+      </c>
+      <c r="C16" s="10">
+        <v>504183</v>
+      </c>
+      <c r="D16" s="9">
+        <v>504183</v>
+      </c>
+      <c r="E16" s="10">
+        <v>540202</v>
+      </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
@@ -1063,7 +1129,9 @@
       <c r="A17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="20"/>
+      <c r="B17" s="20" t="s">
+        <v>36</v>
+      </c>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
       <c r="E17" s="22"/>
@@ -1078,7 +1146,9 @@
       <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="35" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="34"/>
@@ -1093,7 +1163,9 @@
       <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="36"/>
+      <c r="B19" s="36">
+        <v>12.48</v>
+      </c>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
       <c r="E19" s="38"/>
@@ -1108,7 +1180,9 @@
       <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="31"/>
+      <c r="B20" s="31">
+        <v>31.7</v>
+      </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="24"/>
@@ -1123,7 +1197,9 @@
       <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="30"/>
+      <c r="B21" s="30">
+        <v>30.77</v>
+      </c>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
       <c r="E21" s="24"/>
@@ -1138,7 +1214,9 @@
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="31"/>
+      <c r="B22" s="31">
+        <v>45.054400000000001</v>
+      </c>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
       <c r="E22" s="24"/>
@@ -1153,7 +1231,9 @@
       <c r="A23" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="32"/>
+      <c r="B23" s="32">
+        <v>-65.213099999999997</v>
+      </c>
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="34"/>
